--- a/INTLINE/data/111/WSA/WSA.xlsx
+++ b/INTLINE/data/111/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ABU2"/>
+  <dimension ref="A1:ABV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4099,15 +4099,20 @@
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="ABT1" s="1" t="inlineStr">
+      <c r="ABU1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="ABU1" s="1" t="inlineStr">
+      <c r="ABV1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -6352,19 +6357,22 @@
         <v>7102.708</v>
       </c>
       <c r="ABR2" t="n">
-        <v>7266</v>
-      </c>
-      <c r="ABS2" t="inlineStr">
+        <v>6971.029</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>6401</v>
+      </c>
+      <c r="ABT2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="ABT2" t="inlineStr">
+      <c r="ABU2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="ABU2" t="inlineStr">
+      <c r="ABV2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>

--- a/INTLINE/data/111/WSA/WSA.xlsx
+++ b/INTLINE/data/111/WSA/WSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="755">
   <si>
     <t>1960-01</t>
   </si>
@@ -2255,6 +2255,9 @@
   </si>
   <si>
     <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
   </si>
   <si>
     <t>Index</t>
@@ -2633,15 +2636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ABW2"/>
+  <dimension ref="A1:ABX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:751">
+    <row r="1" spans="1:752">
       <c r="A1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4893,10 +4896,13 @@
       <c r="ABW1" s="1" t="s">
         <v>749</v>
       </c>
+      <c r="ABX1" s="1" t="s">
+        <v>750</v>
+      </c>
     </row>
-    <row r="2" spans="1:751">
+    <row r="2" spans="1:752">
       <c r="A2" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B2">
         <v>7249.672</v>
@@ -7137,16 +7143,19 @@
         <v>6369.573</v>
       </c>
       <c r="ABT2">
-        <v>6981</v>
-      </c>
-      <c r="ABU2" t="s">
-        <v>751</v>
+        <v>6870.589</v>
+      </c>
+      <c r="ABU2">
+        <v>6855</v>
       </c>
       <c r="ABV2" t="s">
         <v>752</v>
       </c>
       <c r="ABW2" t="s">
         <v>753</v>
+      </c>
+      <c r="ABX2" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
